--- a/demo-4/src/main/resources/excel/MarathonExcel.xlsx
+++ b/demo-4/src/main/resources/excel/MarathonExcel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -39,6 +39,24 @@
   </si>
   <si>
     <t>2019-07-23</t>
+  </si>
+  <si>
+    <t>FastAndFurious</t>
+  </si>
+  <si>
+    <t>Parventa</t>
+  </si>
+  <si>
+    <t>25/08/2019</t>
+  </si>
+  <si>
+    <t>HappyRun</t>
+  </si>
+  <si>
+    <t>Ogre</t>
+  </si>
+  <si>
+    <t>29/08/2019</t>
   </si>
 </sst>
 </file>
@@ -83,7 +101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:C4"/>
+  <dimension ref="A2:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -122,6 +140,61 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/demo-4/src/main/resources/excel/MarathonExcel.xlsx
+++ b/demo-4/src/main/resources/excel/MarathonExcel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -57,6 +57,39 @@
   </si>
   <si>
     <t>29/08/2019</t>
+  </si>
+  <si>
+    <t>Ventspils maratons</t>
+  </si>
+  <si>
+    <t>24/07/2019</t>
+  </si>
+  <si>
+    <t>Kuldigas maratons</t>
+  </si>
+  <si>
+    <t>Kuldiga</t>
+  </si>
+  <si>
+    <t>31/07/2019</t>
+  </si>
+  <si>
+    <t>Saldus maratons</t>
+  </si>
+  <si>
+    <t>Saldus</t>
+  </si>
+  <si>
+    <t>06/08/2019</t>
+  </si>
+  <si>
+    <t>Talsu maratons</t>
+  </si>
+  <si>
+    <t>Talsi</t>
+  </si>
+  <si>
+    <t>13/08/2019</t>
   </si>
 </sst>
 </file>
@@ -101,7 +134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:C9"/>
+  <dimension ref="A2:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -195,6 +228,61 @@
         <v>14</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
